--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33506.82412283703</v>
+        <v>6667858.000444567</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33506.82412283703</v>
+        <v>6667858.000444567</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39868.7902527081</v>
+        <v>3452869.942190855</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39868.7902527081</v>
+        <v>3452869.942190855</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610541770.631982</v>
+        <v>63397740.48145613</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14216.18330720045</v>
+        <v>1499632.633431304</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27362.25056317373</v>
+        <v>2821978.525780528</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40508.31781914697</v>
+        <v>4144324.418129753</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55502.66018764782</v>
+        <v>5312956.847693964</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69797.51003909034</v>
+        <v>6547072.644835816</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84092.35989053285</v>
+        <v>7781188.441977662</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98442.09919245823</v>
+        <v>9054574.264736038</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112741.3932418584</v>
+        <v>10317921.48224189</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127658.2682219148</v>
+        <v>11456520.41261159</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141282.8924595588</v>
+        <v>12741081.51525445</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>154907.5166972028</v>
+        <v>14025642.61789731</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>168532.1409348467</v>
+        <v>15310203.72054019</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>182156.7651724907</v>
+        <v>16594764.82318306</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>197149.5852030522</v>
+        <v>17748476.81860329</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>214498.4572115075</v>
+        <v>18547266.99989323</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>216</v>
@@ -27052,10 +27052,10 @@
         <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>91</v>
